--- a/Released/BOM/P08R6.xlsx
+++ b/Released/BOM/P08R6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEXABITZ\Modules\Hardware\Modules Hardware Design\P08R6x-Hardware\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0C382-1E6A-43DE-BD09-ED113B7228AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CDDB4B-830F-4306-9F3F-157162936440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>Description</t>
   </si>
@@ -378,6 +378,21 @@
   </si>
   <si>
     <t>C1, C5, C6, C8, C9, C10, C14, C15, C16, C17</t>
+  </si>
+  <si>
+    <t>TVS DIODE 3,3V 10,9V SOD323</t>
+  </si>
+  <si>
+    <t>CDSOD323-T03SC</t>
+  </si>
+  <si>
+    <t>BOURNS INC</t>
+  </si>
+  <si>
+    <t>https://octopart.com/cdsod323-t03sc-bourns-10487153?r=sp</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1455,39 +1470,39 @@
     </row>
     <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B25" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F25" s="19">
         <v>1</v>
@@ -1495,19 +1510,19 @@
     </row>
     <row r="26" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="19">
         <v>1</v>
@@ -1515,19 +1530,19 @@
     </row>
     <row r="27" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="19">
         <v>1</v>
@@ -1535,41 +1550,61 @@
     </row>
     <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B29" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D29" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F29" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+    <row r="30" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F30" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1580,7 +1615,7 @@
     <mergeCell ref="D6:F6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="D23" r:id="rId2" display="https://octopart.com/manufacturers/wolfspeed" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="E10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
@@ -1594,7 +1629,7 @@
     <hyperlink ref="E15" r:id="rId12" xr:uid="{1CA08D75-7CE2-4798-BFB4-4DFC1825B006}"/>
     <hyperlink ref="E14" r:id="rId13" display="https://octopart.com/10tpu4r7msi-panasonic-29487748?r=sp" xr:uid="{23CC8D52-00B7-424D-AE6F-D90CF0F8A6D7}"/>
     <hyperlink ref="E22" r:id="rId14" display="https://octopart.com/search?q=MPZ1608S601ATD25&amp;currency=USD&amp;specs=0" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E24" r:id="rId15" xr:uid="{E9E188C4-314C-4D1D-AEC9-80FFE310229A}"/>
+    <hyperlink ref="E25" r:id="rId15" xr:uid="{E9E188C4-314C-4D1D-AEC9-80FFE310229A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
